--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\Project\Project Pe4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\!FIFA\project_fifa\Documents\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -94,7 +94,19 @@
     <t>di</t>
   </si>
   <si>
-    <t>logboek begonnen en aangepast</t>
+    <t>wo</t>
+  </si>
+  <si>
+    <t>15.30</t>
+  </si>
+  <si>
+    <t>PvA Planning aangemaakt.</t>
+  </si>
+  <si>
+    <t>logboek begonnen en aangepast.</t>
+  </si>
+  <si>
+    <t>2de interview gehouden.</t>
   </si>
 </sst>
 </file>
@@ -149,10 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -467,205 +480,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>42843</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
         <v>14</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
       <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42844</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
       <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>8</v>
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>6</v>
       </c>
       <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>2de interview gehouden.</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>planning afgemaakt en compleet</t>
   </si>
 </sst>
 </file>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,27 +609,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>42844</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -628,46 +620,50 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>6</v>
       </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
+      <c r="I13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42845</v>
+      </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -700,6 +696,28 @@
         <v>8</v>
       </c>
       <c r="G18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -115,7 +115,16 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>planning afgemaakt en compleet</t>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>functioneel ontwerp.</t>
+  </si>
+  <si>
+    <t>technisch ontwerp.</t>
+  </si>
+  <si>
+    <t>planning afgemaakt en compleet.</t>
   </si>
 </sst>
 </file>
@@ -489,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -671,35 +680,30 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -710,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -718,6 +722,17 @@
         <v>8</v>
       </c>
       <c r="G20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>planning afgemaakt en compleet.</t>
+  </si>
+  <si>
+    <t>vr</t>
+  </si>
+  <si>
+    <t>wireframe site gemaakt.</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -703,18 +709,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>42846</v>
+      </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -725,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
       </c>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>wireframe site gemaakt.</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>ma</t>
   </si>
 </sst>
 </file>
@@ -185,11 +191,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -504,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +758,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42856</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>ma</t>
+  </si>
+  <si>
+    <t>wireframes site gemaakt.</t>
+  </si>
+  <si>
+    <t>wireframes c# app gemaakt.</t>
+  </si>
+  <si>
+    <t>C# app bugs gefixt</t>
   </si>
 </sst>
 </file>
@@ -511,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,23 +789,116 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="G25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>42856</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>42856</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>C# app bugs gefixt</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
 </sst>
 </file>
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,20 +804,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>42856</v>
+        <v>42857</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -846,20 +838,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>42856</v>
+        <v>42858</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -891,14 +872,65 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>42859</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>42863</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -526,7 +526,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +922,9 @@
       <c r="G37" t="s">
         <v>3</v>
       </c>
+      <c r="I37" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Week 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.30 </t>
-  </si>
-  <si>
-    <t>14.00</t>
   </si>
   <si>
     <t xml:space="preserve">                         </t>
@@ -97,9 +91,6 @@
     <t>wo</t>
   </si>
   <si>
-    <t>15.30</t>
-  </si>
-  <si>
     <t>PvA Planning aangemaakt.</t>
   </si>
   <si>
@@ -112,12 +103,6 @@
     <t>do</t>
   </si>
   <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
     <t>functioneel ontwerp.</t>
   </si>
   <si>
@@ -145,10 +130,10 @@
     <t>wireframes c# app gemaakt.</t>
   </si>
   <si>
-    <t>C# app bugs gefixt</t>
-  </si>
-  <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>C# app gewerkt</t>
   </si>
 </sst>
 </file>
@@ -523,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,12 +526,12 @@
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
@@ -563,10 +548,10 @@
         <v>5</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -577,19 +562,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -597,16 +579,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -614,16 +593,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -631,16 +607,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -651,16 +624,13 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -668,16 +638,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -688,44 +655,35 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
         <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
       <c r="G16" t="s">
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
       <c r="G17" t="s">
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,25 +694,19 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
       <c r="G20" t="s">
         <v>3</v>
       </c>
@@ -762,9 +714,6 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
@@ -775,33 +724,28 @@
         <v>42856</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="G23" t="s">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -809,33 +753,28 @@
         <v>42857</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E27" s="4"/>
       <c r="G27" t="s">
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -843,33 +782,28 @@
         <v>42858</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E31" s="4"/>
       <c r="G31" t="s">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" t="s">
         <v>32</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -877,33 +811,28 @@
         <v>42859</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E34" s="4"/>
       <c r="G34" t="s">
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="I35" t="s">
         <v>32</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,29 +840,50 @@
         <v>42863</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E37" s="4"/>
       <c r="G37" t="s">
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>42864</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:A41"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,6 +887,32 @@
         <v>3</v>
       </c>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>42865</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="G43" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,6 +913,58 @@
         <v>3</v>
       </c>
     </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>42866</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="G46" t="s">
+        <v>3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>42867</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="G49" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>C# app gewerkt</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
 </sst>
 </file>
@@ -168,12 +171,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,12 +197,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -508,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,9 +588,6 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" t="s">
         <v>3</v>
       </c>
@@ -592,9 +599,6 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
         <v>3</v>
       </c>
@@ -606,9 +610,6 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" t="s">
         <v>14</v>
       </c>
@@ -637,9 +638,6 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
       <c r="G13" t="s">
         <v>3</v>
       </c>
@@ -675,7 +673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -686,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>42846</v>
       </c>
@@ -703,7 +701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -711,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -719,7 +717,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>42856</v>
       </c>
@@ -737,7 +748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -748,7 +759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>42857</v>
       </c>
@@ -766,7 +777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -777,7 +788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>42858</v>
       </c>
@@ -795,7 +806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -806,7 +817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>42859</v>
       </c>
@@ -824,7 +835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>27</v>
       </c>
@@ -835,7 +846,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>42863</v>
       </c>
@@ -853,7 +877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>31</v>
       </c>
@@ -861,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>42864</v>
       </c>
@@ -879,7 +903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>31</v>
       </c>
@@ -887,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42865</v>
       </c>
@@ -905,7 +929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>31</v>
       </c>
@@ -913,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42866</v>
       </c>
@@ -931,7 +955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>31</v>
       </c>
@@ -939,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>42867</v>
       </c>
@@ -957,11 +981,148 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>31</v>
       </c>
       <c r="G50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>42863</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="G52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>42864</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="G55" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>42865</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="G58" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>42866</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="G61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>42867</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="G64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="37">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>ziek</t>
+  </si>
+  <si>
+    <t>controleren documentatie</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
 </sst>
 </file>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58:I59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1013,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>42863</v>
+        <v>42870</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
@@ -1030,7 +1039,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>42864</v>
+        <v>42871</v>
       </c>
       <c r="B55" t="s">
         <v>33</v>
@@ -1056,7 +1065,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>42865</v>
+        <v>42872</v>
       </c>
       <c r="B58" t="s">
         <v>33</v>
@@ -1082,7 +1091,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>42866</v>
+        <v>42873</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
@@ -1093,6 +1102,9 @@
       <c r="E61" s="4"/>
       <c r="G61" t="s">
         <v>3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -1105,7 +1117,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>42867</v>
+        <v>42874</v>
       </c>
       <c r="B64" t="s">
         <v>33</v>
@@ -1117,14 +1129,164 @@
       <c r="G64" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>42884</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="G67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>42885</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="G70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>42886</v>
+      </c>
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="G73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>42887</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="G76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>42888</v>
+      </c>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="G79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presentaties aangemaakt </t>
   </si>
 </sst>
 </file>
@@ -529,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,6 +1223,9 @@
       <c r="G73" t="s">
         <v>3</v>
       </c>
+      <c r="I73" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
@@ -1242,6 +1248,9 @@
       <c r="E76" s="4"/>
       <c r="G76" t="s">
         <v>3</v>
+      </c>
+      <c r="I76" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">

--- a/Documents/Logboeken/Logboek-Noël.xlsx
+++ b/Documents/Logboeken/Logboek-Noël.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="39">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">Presentaties aangemaakt </t>
+  </si>
+  <si>
+    <t>Presentaties, PvE's ,MoSCoW.</t>
   </si>
 </sst>
 </file>
@@ -532,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,6 +1278,9 @@
       <c r="G79" t="s">
         <v>3</v>
       </c>
+      <c r="I79" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
